--- a/dataC.xlsx
+++ b/dataC.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD283"/>
+  <dimension ref="A1:AE283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,6 +508,11 @@
           <t>Telefon.Sdělil</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -628,6 +633,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -698,6 +708,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -793,6 +808,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -923,6 +943,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1033,6 +1058,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1153,6 +1183,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1268,6 +1303,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1383,6 +1423,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1458,6 +1503,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1558,6 +1608,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1698,6 +1753,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1773,6 +1833,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1903,6 +1968,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1963,6 +2033,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2053,6 +2128,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2158,6 +2238,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2278,6 +2363,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2420,6 +2510,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2507,6 +2602,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2582,6 +2682,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2662,6 +2767,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2772,6 +2882,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2917,6 +3032,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3022,6 +3142,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3097,6 +3222,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3167,6 +3297,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3297,6 +3432,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3417,6 +3557,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3567,6 +3712,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3637,6 +3787,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3747,6 +3902,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3887,6 +4047,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3977,6 +4142,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4037,6 +4207,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4087,6 +4262,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4237,6 +4417,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4347,6 +4532,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4387,6 +4577,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4512,6 +4707,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4579,6 +4779,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4694,6 +4899,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4809,6 +5019,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4929,6 +5144,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5029,6 +5249,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5134,6 +5359,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5209,6 +5439,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5284,6 +5519,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5334,6 +5574,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5474,6 +5719,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5559,6 +5809,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5689,6 +5944,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE52" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5779,6 +6039,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE53" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5899,6 +6164,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE54" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6034,6 +6304,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE55" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6164,6 +6439,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE56" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6254,6 +6534,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE57" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6374,6 +6659,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE58" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6519,6 +6809,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6559,6 +6854,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6664,6 +6964,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE61" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6759,6 +7064,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE62" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6829,6 +7139,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE63" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6909,6 +7224,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE64" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7024,6 +7344,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE65" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7144,6 +7469,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE66" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7201,6 +7531,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE67" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7286,6 +7621,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE68" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7351,6 +7691,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE69" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7461,6 +7806,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE70" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7598,6 +7948,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7678,6 +8033,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7748,6 +8108,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7873,6 +8238,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7983,6 +8353,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -8083,6 +8458,11 @@
           <t>4-5</t>
         </is>
       </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8203,6 +8583,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8338,6 +8723,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8488,6 +8878,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8603,6 +8998,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8658,6 +9058,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8733,6 +9138,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8818,6 +9228,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8898,6 +9313,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9013,6 +9433,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9148,6 +9573,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9293,6 +9723,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE87" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9388,6 +9823,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9463,6 +9903,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE89" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9573,6 +10018,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE90" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9678,6 +10128,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE91" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9818,6 +10273,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE92" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9858,6 +10318,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE93" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9953,6 +10418,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE94" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10053,6 +10523,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE95" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10118,6 +10593,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE96" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10158,6 +10638,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE97" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10248,6 +10733,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE98" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10328,6 +10818,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE99" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10463,6 +10958,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE100" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10583,6 +11083,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE101" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10698,6 +11203,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE102" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10823,6 +11333,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE103" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10913,6 +11428,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE104" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11013,6 +11533,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE105" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11098,6 +11623,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE106" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11213,6 +11743,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE107" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11313,6 +11848,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE108" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11398,6 +11938,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE109" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11448,6 +11993,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE110" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11563,6 +12113,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE111" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11693,6 +12248,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE112" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11788,6 +12348,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE113" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11843,6 +12408,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE114" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -11968,6 +12538,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE115" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12058,6 +12633,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE116" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12158,6 +12738,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE117" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -12308,6 +12893,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE118" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -12383,6 +12973,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE119" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -12508,6 +13103,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE120" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -12553,6 +13153,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE121" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -12613,6 +13218,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -12673,6 +13283,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -12758,6 +13373,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -12858,6 +13478,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE125" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -12923,6 +13548,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE126" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -12968,6 +13598,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE127" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -13033,6 +13668,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE128" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -13183,6 +13823,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE129" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -13263,6 +13908,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE130" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -13348,6 +13998,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE131" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -13438,6 +14093,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -13553,6 +14213,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -13613,6 +14278,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE134" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -13693,6 +14363,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE135" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -13793,6 +14468,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE136" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -13928,6 +14608,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE137" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -13993,6 +14678,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE138" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -14100,6 +14790,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE139" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -14220,6 +14915,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE140" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -14310,6 +15010,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE141" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -14432,6 +15137,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE142" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -14509,6 +15219,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE143" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -14619,6 +15334,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE144" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -14719,6 +15439,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE145" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -14834,6 +15559,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE146" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -14984,6 +15714,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE147" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -15079,6 +15814,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE148" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -15184,6 +15924,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE149" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -15279,6 +16024,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE150" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -15379,6 +16129,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE151" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -15469,6 +16224,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE152" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -15594,6 +16354,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE153" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -15691,6 +16456,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE154" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -15766,6 +16536,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE155" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -15846,6 +16621,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE156" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -15916,6 +16696,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE157" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -16036,6 +16821,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE158" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -16126,6 +16916,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE159" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -16171,6 +16966,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE160" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -16241,6 +17041,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE161" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -16361,6 +17166,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE162" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -16461,6 +17271,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE163" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -16571,6 +17386,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE164" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -16676,6 +17496,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE165" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -16801,6 +17626,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE166" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -16886,6 +17716,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE167" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17016,6 +17851,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE168" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17096,6 +17936,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE169" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17161,6 +18006,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE170" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17248,6 +18098,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE171" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17363,6 +18218,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE172" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17448,6 +18308,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE173" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17568,6 +18433,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE174" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17673,6 +18543,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE175" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17733,6 +18608,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE176" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17823,6 +18703,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE177" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17918,6 +18803,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE178" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -18038,6 +18928,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE179" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -18108,6 +19003,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE180" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -18188,6 +19088,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE181" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -18313,6 +19218,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE182" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -18428,6 +19338,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -18498,6 +19413,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE184" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -18605,6 +19525,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -18740,6 +19665,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -18815,6 +19745,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18900,6 +19835,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18970,6 +19910,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -19025,6 +19970,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -19175,6 +20125,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -19300,6 +20255,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -19360,6 +20320,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -19450,6 +20415,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE194" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -19545,6 +20515,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE195" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -19645,6 +20620,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE196" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -19750,6 +20730,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -19832,6 +20817,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE198" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -19917,6 +20907,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE199" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -20007,6 +21002,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE200" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -20157,6 +21157,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE201" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -20272,6 +21277,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE202" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -20417,6 +21427,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE203" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -20512,6 +21527,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE204" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -20612,6 +21632,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE205" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -20707,6 +21732,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE206" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -20817,6 +21847,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE207" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -20877,6 +21912,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE208" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -20967,6 +22007,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE209" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -21067,6 +22112,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE210" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -21132,6 +22182,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE211" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -21267,6 +22322,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -21372,6 +22432,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE213" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -21482,6 +22547,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE214" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -21617,6 +22687,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE215" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -21747,6 +22822,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE216" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -21882,6 +22962,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE217" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -21952,6 +23037,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE218" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -22017,6 +23107,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE219" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -22119,6 +23214,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE220" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -22259,6 +23359,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE221" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -22319,6 +23424,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE222" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -22469,6 +23579,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE223" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -22554,6 +23669,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE224" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -22624,6 +23744,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE225" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -22754,6 +23879,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE226" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -22854,6 +23984,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -23004,6 +24139,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE228" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -23099,6 +24239,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE229" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -23184,6 +24329,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE230" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -23334,6 +24484,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE231" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -23419,6 +24574,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE232" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -23564,6 +24724,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE233" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -23649,6 +24814,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE234" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -23734,6 +24904,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -23784,6 +24959,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -23849,6 +25029,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -23966,6 +25151,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -24081,6 +25271,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -24181,6 +25376,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -24291,6 +25491,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -24411,6 +25616,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -24526,6 +25736,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -24661,6 +25876,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -24706,6 +25926,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>Nad 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -24791,6 +26016,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -24886,6 +26116,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -25036,6 +26271,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -25176,6 +26416,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -25241,6 +26486,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -25331,6 +26581,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -25373,6 +26628,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -25443,6 +26703,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE253" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -25490,6 +26755,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE254" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -25595,6 +26865,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE255" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -25725,6 +27000,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE256" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -25875,6 +27155,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE257" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -25980,6 +27265,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE258" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -26065,6 +27355,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -26205,6 +27500,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -26320,6 +27620,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -26450,6 +27755,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -26565,6 +27875,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -26665,6 +27980,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -26745,6 +28065,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -26852,6 +28177,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -26967,6 +28297,11 @@
           <t>Nedá</t>
         </is>
       </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -27072,6 +28407,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -27212,6 +28552,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -27332,6 +28677,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -27417,6 +28767,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -27537,6 +28892,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>18 – 25 let</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -27687,6 +29047,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -27782,6 +29147,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -27887,6 +29257,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -28027,6 +29402,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -28167,6 +29547,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -28277,6 +29662,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -28427,6 +29817,11 @@
           <t>Sdělí</t>
         </is>
       </c>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>36 – 45 let</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -28517,6 +29912,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>56 – 65 let</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -28617,6 +30017,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>26 – 35 let</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -28707,6 +30112,11 @@
           <t>Nemá</t>
         </is>
       </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -28815,6 +30225,11 @@
       <c r="AD283" t="inlineStr">
         <is>
           <t>Nedá</t>
+        </is>
+      </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>46 – 55 let</t>
         </is>
       </c>
     </row>
